--- a/Sorption Experiments/RaFHYArtificialWater2/RaFHYArtificialWater2.xlsx
+++ b/Sorption Experiments/RaFHYArtificialWater2/RaFHYArtificialWater2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="137">
   <si>
     <t>Parameters</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>ASW stock interpolated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total counts based on the original 2P counts, which showed roughly similar amounts (minimal) 2 phase behavior. </t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1622,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3181,6 +3184,186 @@
       </c>
       <c r="F70">
         <v>308.98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="16">
+        <v>42993.320833333331</v>
+      </c>
+      <c r="B71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71">
+        <v>293.5</v>
+      </c>
+      <c r="D71">
+        <v>3.69</v>
+      </c>
+      <c r="E71">
+        <v>0.05</v>
+      </c>
+      <c r="F71">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
+        <v>42993.320833333331</v>
+      </c>
+      <c r="B72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72">
+        <v>281</v>
+      </c>
+      <c r="D72">
+        <v>3.77</v>
+      </c>
+      <c r="E72">
+        <v>0.09</v>
+      </c>
+      <c r="F72">
+        <v>32.090000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
+        <v>42993.320833333331</v>
+      </c>
+      <c r="B73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73">
+        <v>288.39999999999998</v>
+      </c>
+      <c r="D73">
+        <v>3.72</v>
+      </c>
+      <c r="E73">
+        <v>0.11</v>
+      </c>
+      <c r="F73">
+        <v>42.73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <v>42993.470833333333</v>
+      </c>
+      <c r="B74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74">
+        <v>296.5</v>
+      </c>
+      <c r="D74">
+        <v>3.67</v>
+      </c>
+      <c r="E74">
+        <v>0.04</v>
+      </c>
+      <c r="F74">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
+        <v>42993.470833333333</v>
+      </c>
+      <c r="B75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75">
+        <v>282.8</v>
+      </c>
+      <c r="D75">
+        <v>3.76</v>
+      </c>
+      <c r="E75">
+        <v>0.08</v>
+      </c>
+      <c r="F75">
+        <v>32.090000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
+        <v>42993.470833333333</v>
+      </c>
+      <c r="B76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76">
+        <v>302.2</v>
+      </c>
+      <c r="D76">
+        <v>3.64</v>
+      </c>
+      <c r="E76">
+        <v>0.09</v>
+      </c>
+      <c r="F76">
+        <v>42.72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
+        <v>42993.65625</v>
+      </c>
+      <c r="B77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77">
+        <v>298.3</v>
+      </c>
+      <c r="D77">
+        <v>3.66</v>
+      </c>
+      <c r="E77">
+        <v>0.05</v>
+      </c>
+      <c r="F77">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
+        <v>42993.65625</v>
+      </c>
+      <c r="B78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78">
+        <v>299.8</v>
+      </c>
+      <c r="D78">
+        <v>3.65</v>
+      </c>
+      <c r="E78">
+        <v>0.09</v>
+      </c>
+      <c r="F78">
+        <v>32.08</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="16">
+        <v>42993.65625</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79">
+        <v>286.39999999999998</v>
+      </c>
+      <c r="D79">
+        <v>3.74</v>
+      </c>
+      <c r="E79">
+        <v>0.12</v>
+      </c>
+      <c r="F79">
+        <v>42.73</v>
       </c>
     </row>
   </sheetData>
@@ -6571,7 +6754,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C15" sqref="C15:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6936,17 +7119,17 @@
         <v>85</v>
       </c>
       <c r="C15">
-        <v>4.9494444444444454</v>
+        <v>4.9422222222222221</v>
       </c>
       <c r="D15">
-        <v>0.18180959259259261</v>
+        <v>0.18154429629629629</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="1">
         <f>C15*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>0.74831142988649035</v>
+        <v>0.74716169784557884</v>
       </c>
       <c r="G15" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6961,17 +7144,17 @@
         <v>85</v>
       </c>
       <c r="C16">
-        <v>4.8744444444444452</v>
+        <v>4.8361111111111112</v>
       </c>
       <c r="D16">
-        <v>0.1804519333333334</v>
+        <v>0.17962928703703701</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="1">
         <f>C16*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>0.7363719048462567</v>
+        <v>0.73026948093680377</v>
       </c>
       <c r="G16" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6986,17 +7169,17 @@
         <v>85</v>
       </c>
       <c r="C17">
-        <v>4.8933333333333326</v>
+        <v>4.8827777777777781</v>
       </c>
       <c r="D17">
-        <v>0.180564</v>
+        <v>0.1804186388888889</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="1">
         <f>C17*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>0.73937889633787079</v>
+        <v>0.73769851873961589</v>
       </c>
       <c r="G17" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -7015,11 +7198,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7762,7 +7945,7 @@
       </c>
       <c r="J11" s="1">
         <f>'Count-&gt;Actual Activity'!F15</f>
-        <v>0.74831142988649035</v>
+        <v>0.74716169784557884</v>
       </c>
       <c r="K11" s="1">
         <f>'Count-&gt;Actual Activity'!G11</f>
@@ -7776,27 +7959,27 @@
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>0.74831142988649035</v>
+        <v>0.74716169784557884</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>0.15762839862879363</v>
+        <v>0.15762785323330628</v>
       </c>
       <c r="P11">
-        <f>B11*Parameters!$B$6*100/350</f>
-        <v>65.575678068410468</v>
+        <f>P8</f>
+        <v>74.842858233575527</v>
       </c>
       <c r="Q11">
         <f>SQRT((C11/B11)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!P11</f>
-        <v>21.26452988578006</v>
+        <v>24.269641466532295</v>
       </c>
       <c r="R11">
         <f t="shared" si="2"/>
-        <v>-307.78512372283603</v>
+        <v>4.2129509744980336</v>
       </c>
       <c r="T11">
         <f t="shared" si="3"/>
-        <v>-0.14114173414391529</v>
+        <v>1.6927259595333742E-3</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -7831,7 +8014,7 @@
       </c>
       <c r="J12" s="1">
         <f>'Count-&gt;Actual Activity'!F16</f>
-        <v>0.7363719048462567</v>
+        <v>0.73026948093680377</v>
       </c>
       <c r="K12" s="1">
         <f>'Count-&gt;Actual Activity'!G12</f>
@@ -7845,27 +8028,27 @@
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>0.7363719048462567</v>
+        <v>0.73026948093680377</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>0.15762277567944516</v>
+        <v>0.15761993657576051</v>
       </c>
       <c r="P12">
-        <f>B12*Parameters!$B$6*100/350</f>
-        <v>65.575678068410468</v>
+        <f>P9</f>
+        <v>74.842858233575527</v>
       </c>
       <c r="Q12">
         <f>SQRT((C12/B12)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!P12</f>
-        <v>21.26452988578006</v>
+        <v>24.269641466532295</v>
       </c>
       <c r="R12">
         <f t="shared" si="2"/>
-        <v>-268.08092492386885</v>
+        <v>60.38703964562977</v>
       </c>
       <c r="T12">
         <f t="shared" si="3"/>
-        <v>-0.12293448811623728</v>
+        <v>2.42629715480389E-2</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -7900,7 +8083,7 @@
       </c>
       <c r="J13" s="1">
         <f>'Count-&gt;Actual Activity'!F17</f>
-        <v>0.73937889633787079</v>
+        <v>0.73769851873961589</v>
       </c>
       <c r="K13" s="1">
         <f>'Count-&gt;Actual Activity'!G13</f>
@@ -7914,27 +8097,27 @@
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>0.73937889633787079</v>
+        <v>0.73769851873961589</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>0.15762418332826653</v>
+        <v>0.15762339599540118</v>
       </c>
       <c r="P13">
-        <f>B13*Parameters!$B$6*100/350</f>
-        <v>65.575678068410468</v>
+        <f>P10</f>
+        <v>74.842858233575527</v>
       </c>
       <c r="Q13">
         <f>SQRT((C13/B13)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!P13</f>
-        <v>21.26452988578006</v>
+        <v>24.269641466532295</v>
       </c>
       <c r="R13">
         <f t="shared" si="2"/>
-        <v>-278.08050091768166</v>
+        <v>35.682204837383182</v>
       </c>
       <c r="T13">
         <f t="shared" si="3"/>
-        <v>-0.12752001674542973</v>
+        <v>1.433679024209923E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7951,8 +8134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8179,31 +8362,31 @@
       </c>
       <c r="B5">
         <f>AVERAGE('Bottle Results'!N11:N13)</f>
-        <v>0.74135407702353928</v>
+        <v>0.73837656584066613</v>
       </c>
       <c r="C5">
         <f>_xlfn.STDEV.S('Bottle Results'!N11:N13)</f>
-        <v>6.209997472009952E-3</v>
+        <v>8.4664962603611081E-3</v>
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!R11:R13)</f>
-        <v>-284.64884985479551</v>
+        <v>33.427398485836996</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!R11:R13)</f>
-        <v>20.65098681387261</v>
+        <v>28.15484280315329</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!P11:P13)</f>
-        <v>65.575678068410468</v>
+        <v>74.842858233575527</v>
       </c>
       <c r="G5">
         <f>AVERAGE('Bottle Results'!T11:T13)</f>
-        <v>-0.13053207966852745</v>
+        <v>1.3430829249890502E-2</v>
       </c>
       <c r="H5">
         <f>_xlfn.STDEV.S('Bottle Results'!T11:T13)</f>
-        <v>9.4699706582240303E-3</v>
+        <v>1.131236361115201E-2</v>
       </c>
       <c r="I5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
@@ -8224,6 +8407,9 @@
       <c r="M5">
         <f>COUNT('Bottle Results'!J11:J13)</f>
         <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
